--- a/evaluations/Nicholls-Diver-Finding-gemma3-bert-scores.xlsx
+++ b/evaluations/Nicholls-Diver-Finding-gemma3-bert-scores.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul Sharma\OneDrive - UWA\Desktop\coroner\evaluations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D00FCD-88E8-4B8C-ACDD-24E26D663A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>FILENAME</t>
   </si>
@@ -230,8 +236,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +249,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,13 +306,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -338,7 +358,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -372,6 +392,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -406,9 +427,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -581,14 +603,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -631,16 +655,22 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.8471930623054504</v>
+        <v>0.84719306230545044</v>
       </c>
       <c r="G2">
-        <v>0.8951089382171631</v>
+        <v>0.89510893821716309</v>
       </c>
       <c r="H2">
-        <v>0.870492160320282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.87049216032028198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -654,13 +684,19 @@
         <v>0.9902159571647644</v>
       </c>
       <c r="G3">
-        <v>0.9875965118408203</v>
+        <v>0.98759651184082031</v>
       </c>
       <c r="H3">
-        <v>0.9889044761657715</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.98890447616577148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -671,16 +707,22 @@
         <v>42</v>
       </c>
       <c r="F4">
-        <v>0.8947115540504456</v>
+        <v>0.89471155405044556</v>
       </c>
       <c r="G4">
-        <v>0.8717464208602905</v>
+        <v>0.87174642086029053</v>
       </c>
       <c r="H4">
         <v>0.8830796480178833</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
@@ -691,16 +733,22 @@
         <v>43</v>
       </c>
       <c r="F5">
-        <v>0.8506268858909607</v>
+        <v>0.85062688589096069</v>
       </c>
       <c r="G5">
-        <v>0.8942729234695435</v>
+        <v>0.89427292346954346</v>
       </c>
       <c r="H5">
-        <v>0.8719040751457214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.87190407514572144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -711,16 +759,22 @@
         <v>44</v>
       </c>
       <c r="F6">
-        <v>0.8929895758628845</v>
+        <v>0.89298957586288452</v>
       </c>
       <c r="G6">
-        <v>0.7922567129135132</v>
+        <v>0.79225671291351318</v>
       </c>
       <c r="H6">
-        <v>0.839612603187561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.83961260318756104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -731,16 +785,22 @@
         <v>45</v>
       </c>
       <c r="F7">
-        <v>0.8346260786056519</v>
+        <v>0.83462607860565186</v>
       </c>
       <c r="G7">
-        <v>0.8302209377288818</v>
+        <v>0.83022093772888184</v>
       </c>
       <c r="H7">
-        <v>0.8324176669120789</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.83241766691207886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -751,16 +811,22 @@
         <v>46</v>
       </c>
       <c r="F8">
-        <v>0.8098528385162354</v>
+        <v>0.80985283851623535</v>
       </c>
       <c r="G8">
-        <v>0.8495647311210632</v>
+        <v>0.84956473112106323</v>
       </c>
       <c r="H8">
-        <v>0.8292335867881775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.82923358678817749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -771,16 +837,22 @@
         <v>47</v>
       </c>
       <c r="F9">
-        <v>0.8346905708312988</v>
+        <v>0.83469057083129883</v>
       </c>
       <c r="G9">
-        <v>0.8148456215858459</v>
+        <v>0.81484562158584595</v>
       </c>
       <c r="H9">
-        <v>0.8246487379074097</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.82464873790740967</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -791,16 +863,22 @@
         <v>48</v>
       </c>
       <c r="F10">
-        <v>0.8509758710861206</v>
+        <v>0.85097587108612061</v>
       </c>
       <c r="G10">
-        <v>0.8967976570129395</v>
+        <v>0.89679765701293945</v>
       </c>
       <c r="H10">
-        <v>0.8732861280441284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.87328612804412842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -811,16 +889,22 @@
         <v>49</v>
       </c>
       <c r="F11">
-        <v>0.8484148979187012</v>
+        <v>0.84841489791870117</v>
       </c>
       <c r="G11">
-        <v>0.8678044676780701</v>
+        <v>0.86780446767807007</v>
       </c>
       <c r="H11">
-        <v>0.8580001592636108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.85800015926361084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -831,16 +915,22 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>0.8416647911071777</v>
+        <v>0.84166479110717773</v>
       </c>
       <c r="G12">
-        <v>0.8451061844825745</v>
+        <v>0.84510618448257446</v>
       </c>
       <c r="H12">
-        <v>0.8433820605278015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.84338206052780151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -851,16 +941,22 @@
         <v>51</v>
       </c>
       <c r="F13">
-        <v>0.843512237071991</v>
+        <v>0.84351223707199097</v>
       </c>
       <c r="G13">
-        <v>0.8087844848632812</v>
+        <v>0.80878448486328125</v>
       </c>
       <c r="H13">
         <v>0.825783371925354</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
@@ -871,16 +967,22 @@
         <v>52</v>
       </c>
       <c r="F14">
-        <v>0.7901507616043091</v>
+        <v>0.79015076160430908</v>
       </c>
       <c r="G14">
-        <v>0.8507258296012878</v>
+        <v>0.85072582960128784</v>
       </c>
       <c r="H14">
         <v>0.8193202018737793</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
@@ -891,16 +993,22 @@
         <v>53</v>
       </c>
       <c r="F15">
-        <v>0.844804584980011</v>
+        <v>0.84480458498001099</v>
       </c>
       <c r="G15">
-        <v>0.8789128661155701</v>
+        <v>0.87891286611557007</v>
       </c>
       <c r="H15">
-        <v>0.8615212440490723</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.86152124404907227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -911,16 +1019,17 @@
         <v>54</v>
       </c>
       <c r="F16">
-        <v>0.8135436773300171</v>
+        <v>0.81354367733001709</v>
       </c>
       <c r="G16">
-        <v>0.8484837412834167</v>
+        <v>0.84848374128341675</v>
       </c>
       <c r="H16">
-        <v>0.8306464552879333</v>
+        <v>0.83064645528793335</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>